--- a/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
+++ b/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Product Category</t>
   </si>
@@ -38,15 +38,38 @@
   </si>
   <si>
     <t>Principal</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>119533, 119535</t>
+  </si>
+  <si>
+    <t>119537, 119539, 119541, 119543</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -69,12 +92,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,29 +498,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -386,29 +543,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1358402</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>100</v>
       </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
+++ b/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="MAD3YPremature" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
+++ b/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
+++ b/Excel Data/MahanaAamdanDeposits3YearMigration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MAD3YPremature" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Product Category</t>
   </si>
@@ -53,6 +53,51 @@
   </si>
   <si>
     <t>119537, 119539, 119541, 119543</t>
+  </si>
+  <si>
+    <t>PI.INT.KEY</t>
+  </si>
+  <si>
+    <t>TOT.INTEREST.AMT</t>
+  </si>
+  <si>
+    <t>TAX.INTEREST.KEY:1</t>
+  </si>
+  <si>
+    <t>INT.SCHEDULE</t>
+  </si>
+  <si>
+    <t>OUR.REMARKS:1</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>CHRG.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>CHARGE.CODE:1</t>
+  </si>
+  <si>
+    <t>CHARGE.AMOUNT:1</t>
+  </si>
+  <si>
+    <t>AUTO.ROLL.TERM</t>
+  </si>
+  <si>
+    <t>ROLLOVER.INT.RATE</t>
+  </si>
+  <si>
+    <t>FINAL.MATURITY</t>
+  </si>
+  <si>
+    <t>CUST.REMARKS:1</t>
   </si>
 </sst>
 </file>
@@ -498,58 +543,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="24.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -557,27 +684,31 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1358402</v>
       </c>
       <c r="B2" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="10"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
